--- a/console/Networking/agExcel/list.xlsx
+++ b/console/Networking/agExcel/list.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lulu8/Documents/帮助文档/en/console/Networking/agExcel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C31160-273A-7A45-81F7-7FD6A72A2657}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26760" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <r>
       <rPr>
@@ -555,14 +561,34 @@
   </si>
   <si>
     <t>No Data of Availability Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please enter the name for searching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Found </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return  to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Availability Group  data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -946,21 +972,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="55.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -971,7 +998,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -982,7 +1009,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -992,8 +1019,11 @@
       <c r="C3" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1004,7 +1034,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1014,8 +1044,11 @@
       <c r="C5" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1026,7 +1059,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1037,7 +1070,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1047,8 +1080,11 @@
       <c r="C8" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1058,8 +1094,11 @@
       <c r="C9" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1070,7 +1109,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1081,7 +1120,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1092,7 +1131,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1103,7 +1142,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1114,7 +1153,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1125,7 +1164,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1136,7 +1175,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1146,8 +1185,11 @@
       <c r="C17" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1158,7 +1200,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1169,7 +1211,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>38</v>
       </c>

--- a/console/Networking/agExcel/list.xlsx
+++ b/console/Networking/agExcel/list.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lulu8/Documents/帮助文档/en/console/Networking/agExcel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C31160-273A-7A45-81F7-7FD6A72A2657}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26760" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <r>
       <rPr>
@@ -508,27 +502,15 @@
     <t>Availability Group Help Documentation</t>
   </si>
   <si>
-    <t>Please enter name for searching</t>
-  </si>
-  <si>
     <t>Create</t>
   </si>
   <si>
-    <t>Find XX</t>
-  </si>
-  <si>
     <t>X resource(s) that match(es) the search and filter criteria,</t>
   </si>
   <si>
     <t>'Please change search keywords or'</t>
   </si>
   <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>List</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -557,10 +539,6 @@
   </si>
   <si>
     <t>Create an availability group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Data of Availability Group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -587,8 +565,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -972,22 +950,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="55.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.33203125" customWidth="1"/>
+    <col min="3" max="3" width="55.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -998,7 +976,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1009,7 +987,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1017,13 +995,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1031,24 +1006,21 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1056,10 +1028,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1067,10 +1039,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1078,27 +1050,21 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1106,10 +1072,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1117,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1128,10 +1094,10 @@
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1139,10 +1105,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1150,10 +1116,10 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1161,10 +1127,10 @@
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1172,10 +1138,10 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1185,11 +1151,8 @@
       <c r="C17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1197,10 +1160,10 @@
         <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1208,10 +1171,10 @@
         <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1219,7 +1182,7 @@
         <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
